--- a/natmiOut/OldD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H2">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I2">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J2">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6108647808766</v>
+        <v>13.18802033333333</v>
       </c>
       <c r="N2">
-        <v>12.6108647808766</v>
+        <v>39.564061</v>
       </c>
       <c r="O2">
-        <v>0.1370963410575929</v>
+        <v>0.1333092666742473</v>
       </c>
       <c r="P2">
-        <v>0.1370963410575929</v>
+        <v>0.1413743409290003</v>
       </c>
       <c r="Q2">
-        <v>85.20058682833498</v>
+        <v>119.6064908656829</v>
       </c>
       <c r="R2">
-        <v>85.20058682833498</v>
+        <v>1076.458417791146</v>
       </c>
       <c r="S2">
-        <v>0.006022936691389132</v>
+        <v>0.007222994041467891</v>
       </c>
       <c r="T2">
-        <v>0.006022936691389132</v>
+        <v>0.00784119351023042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H3">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I3">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J3">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0852872308812</v>
+        <v>31.845132</v>
       </c>
       <c r="N3">
-        <v>30.0852872308812</v>
+        <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3270658175064364</v>
+        <v>0.3219020813407859</v>
       </c>
       <c r="P3">
-        <v>0.3270658175064364</v>
+        <v>0.3413768279472386</v>
       </c>
       <c r="Q3">
-        <v>203.2599803034216</v>
+        <v>288.813968541384</v>
       </c>
       <c r="R3">
-        <v>203.2599803034216</v>
+        <v>2599.325716872456</v>
       </c>
       <c r="S3">
-        <v>0.01436870377110329</v>
+        <v>0.01744137428302103</v>
       </c>
       <c r="T3">
-        <v>0.01436870377110329</v>
+        <v>0.0189341414449971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H4">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I4">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J4">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.9844279420197</v>
+        <v>17.06250533333333</v>
       </c>
       <c r="N4">
-        <v>14.9844279420197</v>
+        <v>51.187516</v>
       </c>
       <c r="O4">
-        <v>0.1629000294101368</v>
+        <v>0.172473958647377</v>
       </c>
       <c r="P4">
-        <v>0.1629000294101368</v>
+        <v>0.1829084566999494</v>
       </c>
       <c r="Q4">
-        <v>101.2366777481405</v>
+        <v>154.7454687447529</v>
       </c>
       <c r="R4">
-        <v>101.2366777481405</v>
+        <v>1392.709218702776</v>
       </c>
       <c r="S4">
-        <v>0.00715654813683551</v>
+        <v>0.009345024593545703</v>
       </c>
       <c r="T4">
-        <v>0.00715654813683551</v>
+        <v>0.01014484378294776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H5">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I5">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J5">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6893814661567</v>
+        <v>19.90151933333333</v>
       </c>
       <c r="N5">
-        <v>17.6893814661567</v>
+        <v>59.70455799999999</v>
       </c>
       <c r="O5">
-        <v>0.1923063577891686</v>
+        <v>0.2011717362403738</v>
       </c>
       <c r="P5">
-        <v>0.1923063577891686</v>
+        <v>0.2133424204787085</v>
       </c>
       <c r="Q5">
-        <v>119.5116835946329</v>
+        <v>180.4934198000209</v>
       </c>
       <c r="R5">
-        <v>119.5116835946329</v>
+        <v>1624.440778200188</v>
       </c>
       <c r="S5">
-        <v>0.008448431295691694</v>
+        <v>0.01089993432884642</v>
       </c>
       <c r="T5">
-        <v>0.008448431295691694</v>
+        <v>0.01183283467085888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H6">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I6">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J6">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.6154605365781</v>
+        <v>16.930832</v>
       </c>
       <c r="N6">
-        <v>16.6154605365781</v>
+        <v>33.861664</v>
       </c>
       <c r="O6">
-        <v>0.1806314542366653</v>
+        <v>0.171142957097216</v>
       </c>
       <c r="P6">
-        <v>0.1806314542366653</v>
+        <v>0.1209979539451033</v>
       </c>
       <c r="Q6">
-        <v>112.2561388721109</v>
+        <v>153.5512800081173</v>
       </c>
       <c r="R6">
-        <v>112.2561388721109</v>
+        <v>921.307680048704</v>
       </c>
       <c r="S6">
-        <v>0.00793552770955396</v>
+        <v>0.009272907954501476</v>
       </c>
       <c r="T6">
-        <v>0.00793552770955396</v>
+        <v>0.006711036564279968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>126.496830000438</v>
+        <v>134.993169</v>
       </c>
       <c r="H7">
-        <v>126.496830000438</v>
+        <v>404.979507</v>
       </c>
       <c r="I7">
-        <v>0.8225538877077797</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J7">
-        <v>0.8225538877077797</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.6108647808766</v>
+        <v>13.18802033333333</v>
       </c>
       <c r="N7">
-        <v>12.6108647808766</v>
+        <v>39.564061</v>
       </c>
       <c r="O7">
-        <v>0.1370963410575929</v>
+        <v>0.1333092666742473</v>
       </c>
       <c r="P7">
-        <v>0.1370963410575929</v>
+        <v>0.1413743409290003</v>
       </c>
       <c r="Q7">
-        <v>1595.234418345058</v>
+        <v>1780.292657633103</v>
       </c>
       <c r="R7">
-        <v>1595.234418345058</v>
+        <v>16022.63391869793</v>
       </c>
       <c r="S7">
-        <v>0.1127691283274347</v>
+        <v>0.1075112493066412</v>
       </c>
       <c r="T7">
-        <v>0.1127691283274347</v>
+        <v>0.1167128901810195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.496830000438</v>
+        <v>134.993169</v>
       </c>
       <c r="H8">
-        <v>126.496830000438</v>
+        <v>404.979507</v>
       </c>
       <c r="I8">
-        <v>0.8225538877077797</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J8">
-        <v>0.8225538877077797</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.0852872308812</v>
+        <v>31.845132</v>
       </c>
       <c r="N8">
-        <v>30.0852872308812</v>
+        <v>95.53539599999999</v>
       </c>
       <c r="O8">
-        <v>0.3270658175064364</v>
+        <v>0.3219020813407859</v>
       </c>
       <c r="P8">
-        <v>0.3270658175064364</v>
+        <v>0.3413768279472386</v>
       </c>
       <c r="Q8">
-        <v>3805.693464359127</v>
+        <v>4298.875285903307</v>
       </c>
       <c r="R8">
-        <v>3805.693464359127</v>
+        <v>38689.87757312977</v>
       </c>
       <c r="S8">
-        <v>0.2690292597262425</v>
+        <v>0.2596075710469836</v>
       </c>
       <c r="T8">
-        <v>0.2690292597262425</v>
+        <v>0.2818267867332478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.496830000438</v>
+        <v>134.993169</v>
       </c>
       <c r="H9">
-        <v>126.496830000438</v>
+        <v>404.979507</v>
       </c>
       <c r="I9">
-        <v>0.8225538877077797</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J9">
-        <v>0.8225538877077797</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.9844279420197</v>
+        <v>17.06250533333333</v>
       </c>
       <c r="N9">
-        <v>14.9844279420197</v>
+        <v>51.187516</v>
       </c>
       <c r="O9">
-        <v>0.1629000294101368</v>
+        <v>0.172473958647377</v>
       </c>
       <c r="P9">
-        <v>0.1629000294101368</v>
+        <v>0.1829084566999494</v>
       </c>
       <c r="Q9">
-        <v>1895.482634035479</v>
+        <v>2303.321666026068</v>
       </c>
       <c r="R9">
-        <v>1895.482634035479</v>
+        <v>20729.89499423462</v>
       </c>
       <c r="S9">
-        <v>0.1339940524990197</v>
+        <v>0.1390967877150853</v>
       </c>
       <c r="T9">
-        <v>0.1339940524990197</v>
+        <v>0.1510017622697321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.496830000438</v>
+        <v>134.993169</v>
       </c>
       <c r="H10">
-        <v>126.496830000438</v>
+        <v>404.979507</v>
       </c>
       <c r="I10">
-        <v>0.8225538877077797</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J10">
-        <v>0.8225538877077797</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6893814661567</v>
+        <v>19.90151933333333</v>
       </c>
       <c r="N10">
-        <v>17.6893814661567</v>
+        <v>59.70455799999999</v>
       </c>
       <c r="O10">
-        <v>0.1923063577891686</v>
+        <v>0.2011717362403738</v>
       </c>
       <c r="P10">
-        <v>0.1923063577891686</v>
+        <v>0.2133424204787085</v>
       </c>
       <c r="Q10">
-        <v>2237.650680137323</v>
+        <v>2686.569162721433</v>
       </c>
       <c r="R10">
-        <v>2237.650680137323</v>
+        <v>24179.1224644929</v>
       </c>
       <c r="S10">
-        <v>0.1581823422304039</v>
+        <v>0.1622409696487127</v>
       </c>
       <c r="T10">
-        <v>0.1581823422304039</v>
+        <v>0.1761268015727786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.496830000438</v>
+        <v>134.993169</v>
       </c>
       <c r="H11">
-        <v>126.496830000438</v>
+        <v>404.979507</v>
       </c>
       <c r="I11">
-        <v>0.8225538877077797</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J11">
-        <v>0.8225538877077797</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.6154605365781</v>
+        <v>16.930832</v>
       </c>
       <c r="N11">
-        <v>16.6154605365781</v>
+        <v>33.861664</v>
       </c>
       <c r="O11">
-        <v>0.1806314542366653</v>
+        <v>0.171142957097216</v>
       </c>
       <c r="P11">
-        <v>0.1806314542366653</v>
+        <v>0.1209979539451033</v>
       </c>
       <c r="Q11">
-        <v>2101.803086874506</v>
+        <v>2285.546665486608</v>
       </c>
       <c r="R11">
-        <v>2101.803086874506</v>
+        <v>13713.27999291965</v>
       </c>
       <c r="S11">
-        <v>0.148579104924679</v>
+        <v>0.1380233616655928</v>
       </c>
       <c r="T11">
-        <v>0.148579104924679</v>
+        <v>0.09989097610021834</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.7903749787689</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H12">
-        <v>3.7903749787689</v>
+        <v>12.940861</v>
       </c>
       <c r="I12">
-        <v>0.02464716052288311</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J12">
-        <v>0.02464716052288311</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.6108647808766</v>
+        <v>13.18802033333333</v>
       </c>
       <c r="N12">
-        <v>12.6108647808766</v>
+        <v>39.564061</v>
       </c>
       <c r="O12">
-        <v>0.1370963410575929</v>
+        <v>0.1333092666742473</v>
       </c>
       <c r="P12">
-        <v>0.1370963410575929</v>
+        <v>0.1413743409290003</v>
       </c>
       <c r="Q12">
-        <v>47.79990632607262</v>
+        <v>56.88811266628011</v>
       </c>
       <c r="R12">
-        <v>47.79990632607262</v>
+        <v>511.9930139965209</v>
       </c>
       <c r="S12">
-        <v>0.003379035525146422</v>
+        <v>0.00343545317519879</v>
       </c>
       <c r="T12">
-        <v>0.003379035525146422</v>
+        <v>0.00372948572121413</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.7903749787689</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H13">
-        <v>3.7903749787689</v>
+        <v>12.940861</v>
       </c>
       <c r="I13">
-        <v>0.02464716052288311</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J13">
-        <v>0.02464716052288311</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0852872308812</v>
+        <v>31.845132</v>
       </c>
       <c r="N13">
-        <v>30.0852872308812</v>
+        <v>95.53539599999999</v>
       </c>
       <c r="O13">
-        <v>0.3270658175064364</v>
+        <v>0.3219020813407859</v>
       </c>
       <c r="P13">
-        <v>0.3270658175064364</v>
+        <v>0.3413768279472386</v>
       </c>
       <c r="Q13">
-        <v>114.0345199490076</v>
+        <v>137.367808912884</v>
       </c>
       <c r="R13">
-        <v>114.0345199490076</v>
+        <v>1236.310280215956</v>
       </c>
       <c r="S13">
-        <v>0.008061243705629132</v>
+        <v>0.008295593810050838</v>
       </c>
       <c r="T13">
-        <v>0.008061243705629132</v>
+        <v>0.009005594629240348</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.7903749787689</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H14">
-        <v>3.7903749787689</v>
+        <v>12.940861</v>
       </c>
       <c r="I14">
-        <v>0.02464716052288311</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J14">
-        <v>0.02464716052288311</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.9844279420197</v>
+        <v>17.06250533333333</v>
       </c>
       <c r="N14">
-        <v>14.9844279420197</v>
+        <v>51.187516</v>
       </c>
       <c r="O14">
-        <v>0.1629000294101368</v>
+        <v>0.172473958647377</v>
       </c>
       <c r="P14">
-        <v>0.1629000294101368</v>
+        <v>0.1829084566999494</v>
       </c>
       <c r="Q14">
-        <v>56.79660074259703</v>
+        <v>73.60116994347511</v>
       </c>
       <c r="R14">
-        <v>56.79660074259703</v>
+        <v>662.4105294912761</v>
       </c>
       <c r="S14">
-        <v>0.004015023174054023</v>
+        <v>0.004444748843470312</v>
       </c>
       <c r="T14">
-        <v>0.004015023174054023</v>
+        <v>0.004825164687376754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.7903749787689</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H15">
-        <v>3.7903749787689</v>
+        <v>12.940861</v>
       </c>
       <c r="I15">
-        <v>0.02464716052288311</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J15">
-        <v>0.02464716052288311</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.6893814661567</v>
+        <v>19.90151933333333</v>
       </c>
       <c r="N15">
-        <v>17.6893814661567</v>
+        <v>59.70455799999999</v>
       </c>
       <c r="O15">
-        <v>0.1923063577891686</v>
+        <v>0.2011717362403738</v>
       </c>
       <c r="P15">
-        <v>0.1923063577891686</v>
+        <v>0.2133424204787085</v>
       </c>
       <c r="Q15">
-        <v>67.04938889921867</v>
+        <v>85.8475984604931</v>
       </c>
       <c r="R15">
-        <v>67.04938889921867</v>
+        <v>772.6283861444379</v>
       </c>
       <c r="S15">
-        <v>0.004739805670000632</v>
+        <v>0.005184306367208873</v>
       </c>
       <c r="T15">
-        <v>0.004739805670000632</v>
+        <v>0.005628019240805459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.7903749787689</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H16">
-        <v>3.7903749787689</v>
+        <v>12.940861</v>
       </c>
       <c r="I16">
-        <v>0.02464716052288311</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J16">
-        <v>0.02464716052288311</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.6154605365781</v>
+        <v>16.930832</v>
       </c>
       <c r="N16">
-        <v>16.6154605365781</v>
+        <v>33.861664</v>
       </c>
       <c r="O16">
-        <v>0.1806314542366653</v>
+        <v>0.171142957097216</v>
       </c>
       <c r="P16">
-        <v>0.1806314542366653</v>
+        <v>0.1209979539451033</v>
       </c>
       <c r="Q16">
-        <v>62.97882587856772</v>
+        <v>73.03318117545066</v>
       </c>
       <c r="R16">
-        <v>62.97882587856772</v>
+        <v>438.199087052704</v>
       </c>
       <c r="S16">
-        <v>0.004452052448052905</v>
+        <v>0.004410448200943574</v>
       </c>
       <c r="T16">
-        <v>0.004452052448052905</v>
+        <v>0.003191952221096579</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.32195624800549</v>
+        <v>7.404317666666667</v>
       </c>
       <c r="H17">
-        <v>5.32195624800549</v>
+        <v>22.212953</v>
       </c>
       <c r="I17">
-        <v>0.03460636762195912</v>
+        <v>0.04423508024310419</v>
       </c>
       <c r="J17">
-        <v>0.03460636762195912</v>
+        <v>0.04528157046415997</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.6108647808766</v>
+        <v>13.18802033333333</v>
       </c>
       <c r="N17">
-        <v>12.6108647808766</v>
+        <v>39.564061</v>
       </c>
       <c r="O17">
-        <v>0.1370963410575929</v>
+        <v>0.1333092666742473</v>
       </c>
       <c r="P17">
-        <v>0.1370963410575929</v>
+        <v>0.1413743409290003</v>
       </c>
       <c r="Q17">
-        <v>67.11447061333861</v>
+        <v>97.64829194245921</v>
       </c>
       <c r="R17">
-        <v>67.11447061333861</v>
+        <v>878.8346274821329</v>
       </c>
       <c r="S17">
-        <v>0.004744406378264547</v>
+        <v>0.005896946108484704</v>
       </c>
       <c r="T17">
-        <v>0.004744406378264547</v>
+        <v>0.006401652180600701</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.32195624800549</v>
+        <v>7.404317666666667</v>
       </c>
       <c r="H18">
-        <v>5.32195624800549</v>
+        <v>22.212953</v>
       </c>
       <c r="I18">
-        <v>0.03460636762195912</v>
+        <v>0.04423508024310419</v>
       </c>
       <c r="J18">
-        <v>0.03460636762195912</v>
+        <v>0.04528157046415997</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.0852872308812</v>
+        <v>31.845132</v>
       </c>
       <c r="N18">
-        <v>30.0852872308812</v>
+        <v>95.53539599999999</v>
       </c>
       <c r="O18">
-        <v>0.3270658175064364</v>
+        <v>0.3219020813407859</v>
       </c>
       <c r="P18">
-        <v>0.3270658175064364</v>
+        <v>0.3413768279472386</v>
       </c>
       <c r="Q18">
-        <v>160.112582351428</v>
+        <v>235.791473464932</v>
       </c>
       <c r="R18">
-        <v>160.112582351428</v>
+        <v>2122.123261184388</v>
       </c>
       <c r="S18">
-        <v>0.01131855991720433</v>
+        <v>0.01423936439853192</v>
       </c>
       <c r="T18">
-        <v>0.01131855991720433</v>
+        <v>0.0154580788895243</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.32195624800549</v>
+        <v>7.404317666666667</v>
       </c>
       <c r="H19">
-        <v>5.32195624800549</v>
+        <v>22.212953</v>
       </c>
       <c r="I19">
-        <v>0.03460636762195912</v>
+        <v>0.04423508024310419</v>
       </c>
       <c r="J19">
-        <v>0.03460636762195912</v>
+        <v>0.04528157046415997</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.9844279420197</v>
+        <v>17.06250533333333</v>
       </c>
       <c r="N19">
-        <v>14.9844279420197</v>
+        <v>51.187516</v>
       </c>
       <c r="O19">
-        <v>0.1629000294101368</v>
+        <v>0.172473958647377</v>
       </c>
       <c r="P19">
-        <v>0.1629000294101368</v>
+        <v>0.1829084566999494</v>
       </c>
       <c r="Q19">
-        <v>79.74646990881979</v>
+        <v>126.3362096771942</v>
       </c>
       <c r="R19">
-        <v>79.74646990881979</v>
+        <v>1137.025887094748</v>
       </c>
       <c r="S19">
-        <v>0.005637378303395149</v>
+        <v>0.007629399400612555</v>
       </c>
       <c r="T19">
-        <v>0.005637378303395149</v>
+        <v>0.008282382170549512</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.32195624800549</v>
+        <v>7.404317666666667</v>
       </c>
       <c r="H20">
-        <v>5.32195624800549</v>
+        <v>22.212953</v>
       </c>
       <c r="I20">
-        <v>0.03460636762195912</v>
+        <v>0.04423508024310419</v>
       </c>
       <c r="J20">
-        <v>0.03460636762195912</v>
+        <v>0.04528157046415997</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.6893814661567</v>
+        <v>19.90151933333333</v>
       </c>
       <c r="N20">
-        <v>17.6893814661567</v>
+        <v>59.70455799999999</v>
       </c>
       <c r="O20">
-        <v>0.1923063577891686</v>
+        <v>0.2011717362403738</v>
       </c>
       <c r="P20">
-        <v>0.1923063577891686</v>
+        <v>0.2133424204787085</v>
       </c>
       <c r="Q20">
-        <v>94.14211421716517</v>
+        <v>147.3571711933082</v>
       </c>
       <c r="R20">
-        <v>94.14211421716517</v>
+        <v>1326.214540739774</v>
       </c>
       <c r="S20">
-        <v>0.006655024513691971</v>
+        <v>0.00889884789523753</v>
       </c>
       <c r="T20">
-        <v>0.006655024513691971</v>
+        <v>0.009660479845901083</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.32195624800549</v>
+        <v>7.404317666666667</v>
       </c>
       <c r="H21">
-        <v>5.32195624800549</v>
+        <v>22.212953</v>
       </c>
       <c r="I21">
-        <v>0.03460636762195912</v>
+        <v>0.04423508024310419</v>
       </c>
       <c r="J21">
-        <v>0.03460636762195912</v>
+        <v>0.04528157046415997</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.6154605365781</v>
+        <v>16.930832</v>
       </c>
       <c r="N21">
-        <v>16.6154605365781</v>
+        <v>33.861664</v>
       </c>
       <c r="O21">
-        <v>0.1806314542366653</v>
+        <v>0.171142957097216</v>
       </c>
       <c r="P21">
-        <v>0.1806314542366653</v>
+        <v>0.1209979539451033</v>
       </c>
       <c r="Q21">
-        <v>88.42675401613047</v>
+        <v>125.3612584889653</v>
       </c>
       <c r="R21">
-        <v>88.42675401613047</v>
+        <v>752.1675509337919</v>
       </c>
       <c r="S21">
-        <v>0.006250998509403125</v>
+        <v>0.007570522440237489</v>
       </c>
       <c r="T21">
-        <v>0.006250998509403125</v>
+        <v>0.005478977377584376</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.4201755745037</v>
+        <v>11.6052145</v>
       </c>
       <c r="H22">
-        <v>11.4201755745037</v>
+        <v>23.210429</v>
       </c>
       <c r="I22">
-        <v>0.07426043654280443</v>
+        <v>0.06933219477562523</v>
       </c>
       <c r="J22">
-        <v>0.07426043654280443</v>
+        <v>0.04731494620579632</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.6108647808766</v>
+        <v>13.18802033333333</v>
       </c>
       <c r="N22">
-        <v>12.6108647808766</v>
+        <v>39.564061</v>
       </c>
       <c r="O22">
-        <v>0.1370963410575929</v>
+        <v>0.1333092666742473</v>
       </c>
       <c r="P22">
-        <v>0.1370963410575929</v>
+        <v>0.1413743409290003</v>
       </c>
       <c r="Q22">
-        <v>144.0182899439359</v>
+        <v>153.0498047986948</v>
       </c>
       <c r="R22">
-        <v>144.0182899439359</v>
+        <v>918.2988287921688</v>
       </c>
       <c r="S22">
-        <v>0.01018083413535805</v>
+        <v>0.009242624042454678</v>
       </c>
       <c r="T22">
-        <v>0.01018083413535805</v>
+        <v>0.006689119335935557</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.4201755745037</v>
+        <v>11.6052145</v>
       </c>
       <c r="H23">
-        <v>11.4201755745037</v>
+        <v>23.210429</v>
       </c>
       <c r="I23">
-        <v>0.07426043654280443</v>
+        <v>0.06933219477562523</v>
       </c>
       <c r="J23">
-        <v>0.07426043654280443</v>
+        <v>0.04731494620579632</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>30.0852872308812</v>
+        <v>31.845132</v>
       </c>
       <c r="N23">
-        <v>30.0852872308812</v>
+        <v>95.53539599999999</v>
       </c>
       <c r="O23">
-        <v>0.3270658175064364</v>
+        <v>0.3219020813407859</v>
       </c>
       <c r="P23">
-        <v>0.3270658175064364</v>
+        <v>0.3413768279472386</v>
       </c>
       <c r="Q23">
-        <v>343.5792623860376</v>
+        <v>369.5695876408139</v>
       </c>
       <c r="R23">
-        <v>343.5792623860376</v>
+        <v>2217.417525844884</v>
       </c>
       <c r="S23">
-        <v>0.02428805038625717</v>
+        <v>0.02231817780219852</v>
       </c>
       <c r="T23">
-        <v>0.02428805038625717</v>
+        <v>0.01615222625022898</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.4201755745037</v>
+        <v>11.6052145</v>
       </c>
       <c r="H24">
-        <v>11.4201755745037</v>
+        <v>23.210429</v>
       </c>
       <c r="I24">
-        <v>0.07426043654280443</v>
+        <v>0.06933219477562523</v>
       </c>
       <c r="J24">
-        <v>0.07426043654280443</v>
+        <v>0.04731494620579632</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.9844279420197</v>
+        <v>17.06250533333333</v>
       </c>
       <c r="N24">
-        <v>14.9844279420197</v>
+        <v>51.187516</v>
       </c>
       <c r="O24">
-        <v>0.1629000294101368</v>
+        <v>0.172473958647377</v>
       </c>
       <c r="P24">
-        <v>0.1629000294101368</v>
+        <v>0.1829084566999494</v>
       </c>
       <c r="Q24">
-        <v>171.1247979813641</v>
+        <v>198.0140343007273</v>
       </c>
       <c r="R24">
-        <v>171.1247979813641</v>
+        <v>1188.084205804364</v>
       </c>
       <c r="S24">
-        <v>0.01209702729683244</v>
+        <v>0.01195799809466307</v>
       </c>
       <c r="T24">
-        <v>0.01209702729683244</v>
+        <v>0.008654303789343332</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.4201755745037</v>
+        <v>11.6052145</v>
       </c>
       <c r="H25">
-        <v>11.4201755745037</v>
+        <v>23.210429</v>
       </c>
       <c r="I25">
-        <v>0.07426043654280443</v>
+        <v>0.06933219477562523</v>
       </c>
       <c r="J25">
-        <v>0.07426043654280443</v>
+        <v>0.04731494620579632</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.6893814661567</v>
+        <v>19.90151933333333</v>
       </c>
       <c r="N25">
-        <v>17.6893814661567</v>
+        <v>59.70455799999999</v>
       </c>
       <c r="O25">
-        <v>0.1923063577891686</v>
+        <v>0.2011717362403738</v>
       </c>
       <c r="P25">
-        <v>0.1923063577891686</v>
+        <v>0.2133424204787085</v>
       </c>
       <c r="Q25">
-        <v>202.0158421478812</v>
+        <v>230.9614007392303</v>
       </c>
       <c r="R25">
-        <v>202.0158421478812</v>
+        <v>1385.768404435382</v>
       </c>
       <c r="S25">
-        <v>0.0142807540793804</v>
+        <v>0.0139476780003683</v>
       </c>
       <c r="T25">
-        <v>0.0142807540793804</v>
+        <v>0.01009428514836447</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.4201755745037</v>
+        <v>11.6052145</v>
       </c>
       <c r="H26">
-        <v>11.4201755745037</v>
+        <v>23.210429</v>
       </c>
       <c r="I26">
-        <v>0.07426043654280443</v>
+        <v>0.06933219477562523</v>
       </c>
       <c r="J26">
-        <v>0.07426043654280443</v>
+        <v>0.04731494620579632</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.6154605365781</v>
+        <v>16.930832</v>
       </c>
       <c r="N26">
-        <v>16.6154605365781</v>
+        <v>33.861664</v>
       </c>
       <c r="O26">
-        <v>0.1806314542366653</v>
+        <v>0.171142957097216</v>
       </c>
       <c r="P26">
-        <v>0.1806314542366653</v>
+        <v>0.1209979539451033</v>
       </c>
       <c r="Q26">
-        <v>189.7514765789594</v>
+        <v>196.485937023464</v>
       </c>
       <c r="R26">
-        <v>189.7514765789594</v>
+        <v>785.9437480938559</v>
       </c>
       <c r="S26">
-        <v>0.01341377064497637</v>
+        <v>0.01186571683594065</v>
       </c>
       <c r="T26">
-        <v>0.01341377064497637</v>
+        <v>0.005725011681923981</v>
       </c>
     </row>
   </sheetData>
